--- a/common diseases new.xlsx
+++ b/common diseases new.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELCOT\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F098C83-C442-48A0-9CB1-CA89607EF32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C1DF151-F256-4398-923F-C72929BF77EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="186" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>S.NO</t>
   </si>
@@ -344,9 +339,6 @@
   </si>
   <si>
     <t>https://youtube.com/watch?v=0NX1N6r17I</t>
-  </si>
-  <si>
-    <t>help the person lie down If there are no injuries and the person is breathing, raise the person's legs above heart level — about 12 inches (30 centimeters) — if possible. Loosen belts, collars or other constrictive clothing. To reduce the chance of fainting again, don't get the person up too quickly.</t>
   </si>
   <si>
     <t>cover the person with blankets to keep warm.Call for medical help. ...
@@ -356,23 +348,6 @@
 Loosen the patient's tight clothing.</t>
   </si>
   <si>
-    <t>ask them to try to spit out the object in the mouth                                                                                                                        Give up to 5 sharp blows between their shoulder blades with the heel of your hand. ...
-Check if the blockage has cleared       
-If not, give up to 5 abdominal thrusts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sit the persons down and make them comfortable  .Push hard and fast on the center of the person's chest in a fairly rapid rhythm </t>
-  </si>
-  <si>
-    <t>place a small pillow or towel under their head                                                                                                                              Turn the person gently onto one side. 
-Clear the area around the person of anything hard or sharp. 
-Put something soft and flat, like a folded jacket, under his or her head.
-Remove eyeglasses</t>
-  </si>
-  <si>
-    <t>n. Remove anything remaining in the person's mouth. If the suspected poison is a household cleaner or other chemical, read the container's label and follow instructions for accidental poisoning.</t>
-  </si>
-  <si>
     <t>Call emergency services. ...
 If you're caring for someone else having a stroke, make sure they're in a safe, comfortable position. ...
 Check to see if they're breathing. ...
@@ -380,158 +355,388 @@
 Cover them with a blanket to keep them warm.</t>
   </si>
   <si>
-    <t>Stop any bleeding.                                                                                                                                                                                      Apply pressure to the wound with a sterile bandage, a clean cloth or a clean piece of clothing.
-Immobilize the injured area.  Don't try to realign the bone or push a bone that's sticking out back in. ...
-Apply ice packs to limit swelling and help relieve pain. ...
-Treat for shock.</t>
-  </si>
-  <si>
-    <t>don’t apply lotion.Cool the burn with cool or lukewarm running water for 20 minutes as soon as possible after the injury. Never use ice, iced water, or any creams or greasy substances like butter. Keep yourself or the person warm.</t>
-  </si>
-  <si>
-    <t>do not distrub any blood clots formed.Rinse the cut or wound with water and apply pressure with sterile gauze, a bandage, or a clean cloth</t>
-  </si>
-  <si>
-    <t>switch off the supply by removing plug.  . Begin CPR if the person shows no signs of circulation, such as breathing, coughing or</t>
-  </si>
-  <si>
-    <t>avoid scratching the bites.Apply calamine lotion or a paste of baking soda and water to the injured area to help relieve itching and pain. Calamine lotion is a common antihistamine cream.</t>
-  </si>
-  <si>
-    <t>Apply a cold compress, but don't put pressure on the  eye.If there is bruising, bleeding, change in vision, or it hurts when your eye moves, see a doctor right away.</t>
-  </si>
-  <si>
-    <t>soak in warm bath.Drink plenty of clear fluids such as water. Reduce your intake of coffee, tea and alcohol as these can make the pain worse.</t>
-  </si>
-  <si>
-    <t>sit the person upright and give the puffer.f breathing does not return to normal, call triple zero (000) for an ambulance</t>
-  </si>
-  <si>
-    <t>take them to outside to inhale fresh air.Loosen any tight clothing. Help the person use any prescribed medicine (such as an asthma inhaler or home oxygen). Continue to monitor the person's breathing and pulse until medical help arrives. DO NOT assume that the person's condition is improving if you can no longer hear abnormal breath sounds, such as wheezing.</t>
-  </si>
-  <si>
-    <t>hold an ice pack.Apply ice packs or cold compresses immediately after the injury, and then at least four times a day for the first 24 to 48 hours to reduce swelling. Keep the ice or cold compress on for 10 to 15 minutes at a time. Wrap the ice in a washcloth to prevent frostbite.</t>
-  </si>
-  <si>
-    <t>give them plenty of water.Reassure the casualty and help them to sit down. Give them plenty of water. You can also use an oral rehydration solution. These can help to replace fluid as well as the correct salt and other minerals they've lost.</t>
-  </si>
-  <si>
-    <t>stay hydrated .Dress in lightweight clothing. Use a light blanket if you feel chilled, until the chills end. Take acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others).</t>
-  </si>
-  <si>
-    <t>advise them to lie down and rest. If they're vomiting, give them small sips of water to drink as this will help prevent dehydration. If they have accompanying diarrhoea or diarrhoea only, it is even more important to try to replace lost fluids and salts.</t>
-  </si>
-  <si>
-    <t>drink cold fluid.Use cool wet compresses or give baths in lukewarm water every 3–4 hours for the first few days. Oatmeal bath products, available at supermarkets and drugstores, can help to relieve itching. (Baths do not spread the rash.) Pat (don't rub) the body dry.</t>
-  </si>
-  <si>
-    <t>should lie down.                                                                                                                                                                                         Don't think too far ahead. ...
-Keep things calm. ...
-Ask for hands-on help. ...
-Choose one special confidante</t>
-  </si>
-  <si>
-    <t>remove dry chemicals
-Remove contaminated clothing or jewelry and rinse chemicals off for at least 20 minutes, in a shower if it's available.                                                                                                                                                                                                    Protect your eyes from chemical contamination. Bandage the burn. Cover the burn with a clean bandage.</t>
-  </si>
-  <si>
-    <t>Sit down and focus on your breathing. Take a few deep breaths and hold them for a few seconds before releasing. Take your blood pressure medication if your doctor has prescribed something for you. A cup of hibiscus or chamomile tea can also help you feel calmer, it is a good idea to stock up on these teabags</t>
-  </si>
-  <si>
-    <t>Remove clothing from around the affected area.
-Keep the area dry/ use sterile cotton to avoid infection.
-Keep the burnt area raised to avoid swelling.
-Keep the injured hydrated.
-Take the injured to the emergency care in a hospital immediately or call for an ambulance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safe food and water precaution.To combat high fever, use cold compresses to bring down the temperature. You can Sponge off armpits, feet, groin, and hands. </t>
-  </si>
-  <si>
-    <t>drink plenty of water.Fluids help relieve a fever and sore throat and prevent dehydration. Take an over-the-counter pain reliever. Use pain relievers such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) as needed. These medicines have no antiviral properties.</t>
-  </si>
-  <si>
-    <t>ice pack held over the eyes or forehead .lie down in a dark, quiet room. drink liquids. take acetaminophen or ibuprofen as needed. put a cool, moist cloth across the forehead or eyes.</t>
-  </si>
-  <si>
-    <t>don’t rub the eye.Carefully clean the eye area with warm water and gauze or cotton balls. Gently put cool compresses on the eye. If your doctor suggests it, give acetaminophen or ibuprofen to relieve discomfort (check label instructions for the correct dose). Don't give ibuprofen to an infant younger than 6 months old.</t>
-  </si>
-  <si>
-    <t>Warm liquids — broth, caffeine-free tea or warm water with honey — and cold treats such as ice pops can soothe a sore throat. Don't give honey to children younger than age . Gargle with saltwater</t>
-  </si>
-  <si>
     <t>take them to sunlight .Enhanced nutrition. ...
 Light therapy (phototherapy). ...
 Intravenous immunoglobulin (IVIg). ...
 Exchange transfusion.</t>
   </si>
   <si>
-    <t>raise blood sugar level.Eat or drink 15 to 20 grams of fast-acting carbohydrates.
-These are sugary foods or drinks without protein or fat that are easily converted to sugar in the body. Try glucose tablets or gel, fruit juice, regular (not diet) soda, honey, or sugary candy.</t>
-  </si>
-  <si>
-    <t>flushing and washing wound for 15 minutes  lean the blood and apply an antibacterial ointment. If the wound is bleeding - apply and press a clean cloth to the area to stop bleeding. Clean the area and apply a sterile bandage. It is important to seek immediate medical attention in case of a bleeding dog bite wound..</t>
-  </si>
-  <si>
-    <t>move the person beyond striking distance of snake.Have the person lie down with wound below the heart. Keep the person calm and at rest, remaining as still as possible to keep venom from spreading. Cover the wound with loose, sterile bandage. Remove any jewelry from the area that was bitten.</t>
-  </si>
-  <si>
-    <t>rinse your mouth with warm water. Use dental floss to remove any food particles or plaque wedged between your teeth. Consider taking an over-the-counter (OTC) pain reliever to dull the ache, but don't place aspirin or another painkiller directly against your gums because it may burn your gum tissue.</t>
-  </si>
-  <si>
-    <t>get plenty of fluids eat fruits.Reduce your intake of coffee, tea and alcohol as these can make the pain worse. When you are allowed to eat again, start with clear liquids, then progress to bland foods such as crackers, rice, bananas or toast. Your doctor may advise you to avoid certain foods.</t>
-  </si>
-  <si>
-    <t>breath calmly and slowly . . Push hard and fast on the person's chest for 100 to 120 compressions a minute. If an automated external defibrillator (AED) is immediately available and the person is unconscious, follow the device instructions for using it.</t>
-  </si>
-  <si>
-    <t>provide first aid without moving person neck.put a warm moist cloth on the neck as often as needed for pain. give acetaminophen or ibuprofen for pain. call the doctor if symptoms last more than a few days.</t>
-  </si>
-  <si>
-    <t>apply the ice right away to reduce swelling. rest, ice, compression, elevation: Rest. Avoid activities that cause pain, swelling or discomfort</t>
-  </si>
-  <si>
-    <t>Give an oral rehydration solution (such as Pedialyte, Enfalyte, or a store brand) to replace lost fluids. It has the right amount of water, sugar, and salt for kids. You can buy it at drugstores or supermarkets without a prescription. Offer small amounts often by syringe, spoon, or cup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establish the person with eye contact .Speak slow and present one idea at a time. Establish a caring atmosphere. If you are approaching an individual who is upset or emotional, your composure may help to calm the individual. </t>
-  </si>
-  <si>
-    <t>take them to the doctor.surgery, physical therapy, psychological therapy and radiotherapy. However, one of the most common treatment forms is the use of medication.31-Jan-2013</t>
-  </si>
-  <si>
-    <t>use a clean pad or dressing if possible.apply and maintain pressure to the wound with your gloved hand, using a clean pad or dressing if possible; continue to apply pressure until the bleeding stops. use a clean dressing to bandage the wound firmly.</t>
-  </si>
-  <si>
-    <t>maintain proper electrolyte balance . restrict your salt intake to less than 6g a day – that's around 1 teaspoon.
-do regular exercise – aim to do at least 150 minutes a week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                       pull your clenched fist .                                                                                                                                                                                                       You start to get burning or itchy welts in your throat.
-</t>
-  </si>
-  <si>
-    <t>give sugary drinks such as cola .If someone has a diabetic emergency, their blood sugar levels can become too low. This can make them collapse. Giving them something sugary will help raise their blood sugar levels and improve their bodily function.</t>
-  </si>
-  <si>
-    <t>stay in the shade.Chemotherapy for basal cell carcinoma, squamous cell carcinoma of the skin, and actinic keratosis is usually topical (applied to the skin in a cream or lotion). Topical fluorouracil (5-FU) is used to treat basal cell carcinoma</t>
-  </si>
-  <si>
-    <t>Complete the full course of your TB medications. Stay at home especially during the first two weeks of treatment. Cover your mouth with a tissue when you cough or sneeze, and wear a face mask when around people dur​ing the first few weeks of treatment.</t>
-  </si>
-  <si>
-    <t>Stop bleeding by direct pressure on the wound with thick pad of bandage or cloth. Bleeding limbs should be elevated to prevent bleeding. Do not remove foreign objects from bleeding wound. Apply pads and bandage them around the wound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In the first 48 to 72 hours
-Rest the joint at first                                                                                                                                                                             Reduce pain, swelling and internal bleeding with icepacks, applied for 15 minutes every couple of hours. Bandage the knee firmly and extend the wrapping down the lower leg. Elevate the injured leg.</t>
+    <t>sit the persons down and make them comfortable. 
+Push hard and fast on the center of the person's 
+chest in a fairly rapid rhythm.</t>
+  </si>
+  <si>
+    <t>help the person lie down If there are no injuries and 
+the person is breathing, raise the person's legs above
+heart level — about 12 inches (30 centimeters) —
+ if possible. Loosen belts, collars or other constrictive 
+clothing. To reduce the chance of fainting again, 
+don't get the person up too quickly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place a small pillow or towel under their head
+Turn the person gently onto one side. 
+Clear the area around the person of anything 
+hard or sharp. Put something soft and flat, 
+like a folded jacket, under his or her
+ head.Remove eyeglasses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm liquids — broth, caffeine-free tea or 
+warm water with honey — and cold treats 
+such as ice pops can soothe a sore throat. 
+Don't give honey to children younger than age . 
+Gargle with saltwater.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop any bleeding. Apply pressure to the wound with a
+ sterile bandage, a clean cloth or a clean piece of clothing.
+Immobilize the injured area.  Don't try to realign the bone
+ or push a bone that's sticking out back in. ...
+Apply ice packs to limit swelling and help relieve pain. ...
+Treat for shock.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remove anything remaining in the person's mouth.
+ If the suspected poison is a household cleaner or 
+other chemical, read the container's label and 
+follow instructions for accidental poisoning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t apply lotion.Cool the burn with cool or 
+lukewarm running water for 20 minutes as soon as 
+possible after the injury. Never use ice, iced water,
+ or any creams or greasy substances like butter. 
+Keep yourself or the person warm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do not distrub any blood clots formed.Rinse
+ the cut or wound with water and apply pressure 
+with sterile gauze, a bandage, or a clean cloth
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch off the supply by removing plug . 
+Begin CPR if the person shows no signs
+ of circulation, such as breathing, coughing 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoid scratching the bites.Apply calamine lotion 
+or a paste of baking soda and water to the injured 
+area to help relieve itching and pain. Calamine
+ lotion is a common antihistamine cream.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply a cold compress, but don't put pressure 
+on the  eye.If there is bruising, bleeding, change 
+in vision, or it hurts when your eye moves, 
+see a doctor right away
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soak in warm bath.Drink plenty of clear fluids 
+such as water. Reduce your intake of coffee, 
+tea and alcohol as these can make the pain worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sit the person upright and give the puffer.
+if breathing does not return to normal, 
+call triple zero (000) for an ambulance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take them to outside to inhale fresh air.
+Loosen any tight clothing. Help the person use 
+any prescribed medicine (such as an asthma inhaler
+ or home oxygen). Continue to monitor the person's 
+breathing and pulse until medical help arrives. 
+DO NOT assume that the person's condition is 
+improving if you can no longer hear abnormal
+ breath sounds, such as wheezing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold an ice pack.Apply ice packs or cold compresses 
+immediately after the injury, and then at least four
+ times a day for the first 24 to 48 hours to reduce 
+swelling. Keep the ice or cold compress on for 10 
+to 15 minutes at a time. Wrap the ice in a washcloth 
+to prevent frostbite.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give them plenty of water.Reassure the 
+casualty and help them to sit down. 
+Give them plenty of water. You can also use an 
+oral rehydration solution. These can help to 
+replace fluid as well as the correct salt and 
+other minerals they've lost.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay hydrated .Dress in lightweight clothing. 
+Use a light blanket if you feel chilled, until 
+the chills end. Take acetaminophen (Tylenol, others) 
+or ibuprofen (Advil, Motrin IB, others).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advise them to lie down and rest. If they're vomiting, 
+give them small sips of water to drink as this will 
+help prevent dehydration. If they have accompanying 
+diarrhoea or diarrhoea only, it is even more
+ important to try to replace lost fluids and salts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raise blood sugar level.Eat or drink 15 to 20 
+grams of fast-acting carbohydrates.These are sugary 
+foods or drinks without protein or fat that are easily 
+converted to sugar in the body. Try glucose tablets or 
+gel, fruit juice, regular (not diet) soda, honey, or sugary candy..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flushing and washing wound for 15 minutes  
+lean the blood and apply an antibacterial ointment. 
+If the wound is bleeding - apply and press a clean 
+cloth to the area to stop bleeding. Clean the area 
+and apply a sterile bandage. It is important to seek
+ immediate medical attention in case of a
+ bleeding dog bite wound..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move the person beyond striking distance of snake.
+Have the person lie down with wound below the heart. 
+Keep the person calm and at rest, remaining as still as
+ possible to keep venom from spreading. Cover 
+the wound with loose, sterile bandage. 
+Remove any jewelry from the area that was bitten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rinse your mouth with warm water. Use dental floss
+ to remove any food particles or plaque wedged 
+between your teeth. Consider taking an over-the-counter (OTC) 
+pain reliever to dull the ache, but don't place aspirin 
+or another painkiller directly against your gums
+ because it may burn your gum tissue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get plenty of fluids eat fruits.Reduce your intake 
+of coffee, tea and alcohol as these can make the pain 
+worse. When you are allowed to eat again, start with 
+clear liquids, then progress to bland foods such as 
+crackers, rice, bananas or toast. Your doctor may advise 
+you to avoid certain foods.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breath calmly and slowly . . Push hard and fast on 
+the person's chest for 100 to 120 compressions a minute. 
+If an automated external defibrillator (AED) is immediately 
+available and the person is unconscious, 
+follow the device instructions for using it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide first aid without moving person neck.
+put a warm moist cloth on the neck as often 
+as needed for pain. give acetaminophen or 
+ibuprofen for pain. call the doctor if symptoms 
+last more than a few days.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply the ice right away to reduce swelling.
+ rest, ice, compression, elevation: Rest. Avoid 
+activities that cause pain, swelling or discomfort
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give sugary drinks such as cola .If someone has a 
+diabetic emergency, their blood sugar levels can become
+ too low. This can make them collapse. Giving them 
+something sugary will help raise their blood sugar 
+levels and improve their bodily function.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay in the shade.Chemotherapy for basal cell carcinoma, 
+squamous cell carcinoma of the skin, and actinic 
+keratosis is usually topical (applied to the skin in a 
+cream or lotion). Topical fluorouracil (5-FU) is used to 
+treat basal cell carcinoma
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In the first 48 to 72 hours Rest the joint at first
+ Reduce pain, swelling and internal bleeding with 
+icepacks, applied for 15 minutes every couple of 
+hours.Bandage the knee firmly and extend the wrapping 
+down the lower leg. Elevate the injured leg.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the full course of your TB medications. 
+Stay at home especially during the first two weeks 
+of treatment. Cover your mouth with a tissue when 
+you cough or sneeze, and wear a face mask when 
+around people during the first few weeks of treatment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop bleeding by direct pressure on the wound with 
+thick pad of bandage or cloth. Bleeding limbs should 
+be elevated to prevent bleeding. Do not remove 
+foreign objects from bleeding wound. Apply pads and 
+bandage them around the wound
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintain proper electrolyte balance . restrict your 
+salt intake to less than 6g a day – that's around 1 
+teaspoon.do regular exercise – aim to do at least 
+150 minutes a week.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use a clean pad or dressing if possible.apply 
+and maintain pressure to the wound with 
+your gloved hand, using a clean pad or dressing 
+if possible; continue to apply pressure until the 
+bleeding stops. use a clean dressing to bandage 
+the wound firmly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take them to the doctor.surgery, physical therapy, 
+psychological therapy and radiotherapy.
+ However, one of the most common treatment 
+forms is the use of medication.31-Jan-2013
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">establish the person with eye contact .Speak 
+slow and present one idea at a time. Establish 
+a caring atmosphere. If you are approaching an 
+individual who is upset or emotional, your composure 
+may help to calm the individual.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an oral rehydration solution 
+(such as Pedialyte, Enfalyte, or a store brand)
+ to replace lost fluids. It has the right amount of water, 
+sugar, and salt for kids. You can buy it at drugstores 
+or supermarkets without a prescription. Offer
+small amounts often by syringe, spoon, or cup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm liquids — broth, caffeine-free tea or
+ warm water with honey — and cold treats
+ such as ice pops can soothe a sore throat. 
+Don't give honey to children younger than age . 
+Gargle with saltwater
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t rub the eye.Carefully clean the eye area 
+with warm water and gauze or cotton balls. 
+Gently put cool compresses on the eye. If your 
+doctor suggests it, give acetaminophen or ibuprofen
+ to relieve discomfort (check label instructions for the correct dose). 
+Don't give ibuprofen to an infant younger than 6 months old.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice pack held over the eyes or forehead .
+lie down in a dark, quiet room. drink liquids. 
+take acetaminophen or ibuprofen as needed. 
+put a cool, moist cloth across the forehead or eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink plenty of water.Fluids help relieve a fever 
+and sore throat and prevent dehydration. 
+Take an over-the-counter pain reliever. 
+Use pain relievers such as acetaminophen 
+(Tylenol, others) or ibuprofen (Advil, Motrin IB, others) 
+as needed. These medicines have no antiviral properties.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safe food and water precaution.To combat high 
+fever, use cold compresses to bring down the
+ temperature. You can Sponge off armpits, feet, 
+groin, and hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sit down and focus on your breathing. 
+Take a few deep breaths and hold them for a 
+few seconds before releasing. Take your blood 
+pressure medication if your doctor has prescribed 
+something for you. A cup of hibiscus or chamomile 
+tea can also help you feel calmer, it is a good idea to 
+stock up on these teabags
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink cold fluid.Use cool wet compresses or give 
+baths in lukewarm water every 3–4 hours for the
+ first few days. Oatmeal bath products, available 
+at supermarkets and drugstores, can help to relieve
+itching. (Baths do not spread the rash.) Pat (don't rub) 
+the body dry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pull your clenched fist. 
+You start to get burning or itchy welts in your throat .
+</t>
+  </si>
+  <si>
+    <t>should lie down.Don't think too far ahead. ...
+Keep things calm. ...
+Ask for hands-on help. ...
+Choose one special confidante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove dry chemicals.Remove contaminated 
+clothing or jewelry and rinse chemicals off for 
+at least 20 minutes, in a shower if it's available.
+Bandage the burn. Cover the burn with a clean bandage.
+Protect your eyes from chemical contamination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove clothing from around the affected area.
+Keep the area dry/ use sterile cotton to avoid infection.
+Keep the burnt area raised to avoid swelling.
+Keep the injured hydrated.
+Take the injured to the emergency care in a hospital 
+immediately or call for an ambulance.                                                                                                                                                                                        
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -697,7 +902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -891,28 +1096,346 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DF3D2B-564F-49A4-8A78-6AD8508FFD77}">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="98.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A34" si="0">UPPER(B3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f t="shared" ref="A35:A51" si="1">UPPER(B35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,720 +1443,923 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B33" si="0">UPPER(C2)</f>
+        <v>HEART ATTACK</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="90">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAINITING</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="105">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>SEIZURES</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>SHOCK</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="90">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>CHOKING</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="105">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>FRACTURES</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>POISONING</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="90">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>STROKE</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="90">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>BURNS AND SCALDS</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>MAJOR CUT</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>ELECTROCUTION</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="75">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>BITES</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="75">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>EYE TRAUMA</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>ABDOMINAL PAIN</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="60">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>ASTHMA</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="135">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>BREATHING PROBLEMS</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="105">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>BROKEN NOSE</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="105">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>DEHYDRATION</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="75">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>FEVER</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="90">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>FOOD POISONING</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>JAUNDICE</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="90">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>LOW BLOOD SUGAR</v>
+      </c>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="120">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>RABIES</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="105">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>SNAKE BITE</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="105">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>TOOTHACHE</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="105">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>STOMACH PAIN</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="90">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>PANIC ATTACK</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="90">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>NECK STRAIN</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="60">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>MUSCLE STRAIN</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="105">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>KNEE INJURY</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="90">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>DIABETES</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="90">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>SKIN CANCER</v>
+      </c>
+      <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="90">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f t="shared" ref="B34:B51" si="1">UPPER(C34)</f>
+        <v>TUBERCULOSIS</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="90">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>ACCIDENT</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="75">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>KIDNEY DISEASE</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="105">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>INJURY</v>
+      </c>
+      <c r="C37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="75">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>CHRONIC DISORDER</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="90">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>ALZHEIMERS DISEASE</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="105">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>DIARRHOE</v>
+      </c>
+      <c r="C40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>SORE THROAT</v>
+      </c>
+      <c r="C41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="105">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>CONJUNCTIVITIS</v>
+      </c>
+      <c r="C42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="75">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>HEAD ACHE</v>
+      </c>
+      <c r="C43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="105">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>MONONUCLEOSIS</v>
+      </c>
+      <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="75">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>TYPHOID</v>
+      </c>
+      <c r="C45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="105">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>FIRE ACCIDENT</v>
+      </c>
+      <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="120">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>HIGH PRESSURE</v>
+      </c>
+      <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="75">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>ACID BURN</v>
+      </c>
+      <c r="C48" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="60">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>BRAIN TUMOUR</v>
+      </c>
+      <c r="C49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="105">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>CHICKEN POX</v>
+      </c>
+      <c r="C50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="60">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>HIVES</v>
+      </c>
+      <c r="C51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8360E312-E8C0-44EF-914D-3B9C8773207C}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{069FED00-7FB8-4292-91B0-DE1D074042E6}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{06005B69-C9D2-4C06-9E7A-2102E1607CB9}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{64BFAD85-BED0-4A0F-9D94-0E479B862524}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{2451D039-77FF-45A8-B7EA-7E2FF7FE6303}"/>
-    <hyperlink ref="D43" r:id="rId6" xr:uid="{EEB373A1-064A-4435-9E87-D356DC37F680}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="E43" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
